--- a/Inputs/William_russell/benefits.xlsx
+++ b/Inputs/William_russell/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nextcare GN+/Nextcare GN/Nextcare GN excluding Mediclinic City Hospital/Nextcare GN excluding all hospitals#clinics in the Mediclinic group/Nextcare RN/Nextcare RN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nextcare GN+/Nextcare GN/Nextcare GN excluding Mediclinic City Hospital/Nextcare GN excluding all hospitals#clinics in the Mediclinic group/Nextcare RN/Nextcare RN3</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -684,11 +681,11 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.87"/>
@@ -748,467 +745,467 @@
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1221,30 +1218,30 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,17 +1249,17 @@
         <v>4</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="16" t="n">
         <v>0.03</v>
@@ -1273,10 +1270,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="17" t="n">
         <v>0.05</v>
@@ -1287,10 +1284,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="17" t="n">
         <v>0.05</v>
@@ -1304,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1314,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="D48" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,13 +1325,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="D49" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,13 +1339,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,13 +1353,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,13 +1367,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,13 +1381,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,13 +1395,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,19 +1409,19 @@
         <v>4</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
